--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/SOUTH_CAROLINA_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/SOUTH_CAROLINA_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1147"/>
+  <dimension ref="A1:D1141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C26">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C29">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C31">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C37">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C41">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C57">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C63">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C68">
@@ -1278,7 +1278,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C69">
@@ -1582,7 +1582,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C92">
@@ -1608,7 +1608,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C94">
@@ -1621,7 +1621,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C95">
@@ -1860,7 +1860,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C113">
@@ -1995,7 +1995,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2052,7 +2052,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C127">
@@ -2330,7 +2330,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C148">
@@ -2434,12 +2434,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C156">
@@ -2465,7 +2465,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C158">
@@ -2478,7 +2478,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C159">
@@ -2517,7 +2517,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C162">
@@ -2569,7 +2569,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C166">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C170">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C174">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C177">
@@ -2725,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C178">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C190">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C198">
@@ -2998,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C199">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C207">
@@ -3180,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C213">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C217">
@@ -3245,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C218">
@@ -3258,7 +3258,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C219">
@@ -3380,7 +3380,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C228">
@@ -3393,7 +3393,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C229">
@@ -3406,7 +3406,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C230">
@@ -3497,7 +3497,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C237">
@@ -3536,7 +3536,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C240">
@@ -3666,7 +3666,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C250">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C252">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C254">
@@ -3744,7 +3744,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C256">
@@ -3757,7 +3757,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C257">
@@ -3809,7 +3809,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C261">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C267">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C270">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C271">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C274">
@@ -4009,7 +4009,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C276">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C277">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C280">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C281">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C282">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C286">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C287">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C290">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C291">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C296">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C297">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C299">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C300">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C302">
@@ -4367,7 +4367,7 @@
         <v>61</v>
       </c>
       <c r="D303">
-        <v>0.009046418508082455</v>
+        <v>0.009046418508082457</v>
       </c>
     </row>
     <row r="304">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C305">
@@ -4503,7 +4503,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C314">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C316">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C318">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C320">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C323">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C324">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C339">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C344">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C346">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C348">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C351">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C357">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C358">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C359">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C361">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C362">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C363">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C366">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C371">
@@ -5301,7 +5301,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C375">
@@ -5314,7 +5314,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C376">
@@ -5327,7 +5327,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C377">
@@ -5340,7 +5340,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C378">
@@ -5418,7 +5418,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C384">
@@ -5431,7 +5431,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C385">
@@ -5470,7 +5470,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C388">
@@ -5503,7 +5503,7 @@
         <v>625</v>
       </c>
       <c r="D390">
-        <v>0.09268871422215631</v>
+        <v>0.09268871422215633</v>
       </c>
     </row>
     <row r="391">
@@ -5527,7 +5527,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C392">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C395">
@@ -5644,7 +5644,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C401">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C405">
@@ -5748,7 +5748,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C409">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C412">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C416">
@@ -5930,7 +5930,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C423">
@@ -5969,7 +5969,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C426">
@@ -5995,7 +5995,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C428">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C429">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C433">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C435">
@@ -6099,7 +6099,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C436">
@@ -6125,7 +6125,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C438">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C440">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C442">
@@ -6871,7 +6871,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C495">
@@ -7097,7 +7097,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C512">
@@ -7175,7 +7175,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C518">
@@ -7227,7 +7227,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C522">
@@ -7279,7 +7279,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C526">
@@ -7305,7 +7305,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C528">
@@ -7440,7 +7440,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C538">
@@ -7479,7 +7479,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C541">
@@ -7531,7 +7531,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C545">
@@ -7692,7 +7692,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C557">
@@ -7749,7 +7749,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C561">
@@ -7827,7 +7827,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C567">
@@ -7879,7 +7879,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C571">
@@ -7892,7 +7892,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C572">
@@ -7905,7 +7905,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C573">
@@ -7918,7 +7918,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C574">
@@ -7931,7 +7931,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C575">
@@ -7944,7 +7944,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C576">
@@ -8035,7 +8035,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C583">
@@ -8061,7 +8061,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C585">
@@ -8100,7 +8100,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C588">
@@ -8113,7 +8113,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C589">
@@ -8126,7 +8126,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C590">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C592">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C604">
@@ -8386,7 +8386,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C610">
@@ -8490,7 +8490,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C618">
@@ -8529,7 +8529,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C621">
@@ -8646,7 +8646,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C630">
@@ -8906,7 +8906,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C650">
@@ -9010,7 +9010,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C658">
@@ -9036,7 +9036,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C660">
@@ -9192,7 +9192,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C672">
@@ -9322,7 +9322,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C682">
@@ -9829,7 +9829,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C721">
@@ -10063,7 +10063,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C739">
@@ -10180,7 +10180,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C748">
@@ -10193,7 +10193,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C749">
@@ -10206,7 +10206,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C750">
@@ -10219,7 +10219,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C751">
@@ -10232,7 +10232,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C752">
@@ -10245,7 +10245,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C753">
@@ -10258,7 +10258,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C754">
@@ -10271,7 +10271,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C755">
@@ -10284,7 +10284,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C756">
@@ -10562,7 +10562,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C777">
@@ -10692,7 +10692,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C787">
@@ -10744,7 +10744,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C791">
@@ -10796,7 +10796,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C795">
@@ -10848,7 +10848,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C799">
@@ -10926,7 +10926,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C805">
@@ -10939,7 +10939,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C806">
@@ -11017,7 +11017,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C812">
@@ -11043,7 +11043,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C814">
@@ -11095,7 +11095,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C818">
@@ -11225,7 +11225,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C828">
@@ -11438,7 +11438,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C844">
@@ -11464,7 +11464,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C846">
@@ -11503,7 +11503,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C849">
@@ -11516,7 +11516,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C850">
@@ -11542,7 +11542,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C852">
@@ -11568,7 +11568,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C854">
@@ -11721,7 +11721,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C865">
@@ -11734,7 +11734,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C866">
@@ -11786,7 +11786,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C870">
@@ -11890,7 +11890,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C878">
@@ -11968,7 +11968,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C884">
@@ -12020,7 +12020,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C888">
@@ -12033,7 +12033,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C889">
@@ -12137,7 +12137,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C897">
@@ -12150,7 +12150,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C898">
@@ -12163,7 +12163,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C899">
@@ -12516,7 +12516,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C925">
@@ -12846,7 +12846,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C950">
@@ -12968,7 +12968,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C959">
@@ -12981,7 +12981,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C960">
@@ -13020,7 +13020,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C963">
@@ -13155,7 +13155,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C973">
@@ -13207,7 +13207,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C977">
@@ -13324,7 +13324,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C986">
@@ -13350,7 +13350,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C988">
@@ -13402,7 +13402,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C992">
@@ -13428,7 +13428,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C994">
@@ -13597,7 +13597,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1007">
@@ -13610,7 +13610,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1008">
@@ -13818,7 +13818,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1024">
@@ -13831,7 +13831,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1025">
@@ -13870,7 +13870,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1028">
@@ -13883,7 +13883,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1029">
@@ -13896,7 +13896,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1030">
@@ -14013,7 +14013,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1039">
@@ -14026,7 +14026,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1040">
@@ -14078,7 +14078,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1044">
@@ -14208,7 +14208,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1054">
@@ -14247,7 +14247,7 @@
     <row r="1057">
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1057">
@@ -14260,7 +14260,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1058">
@@ -14299,7 +14299,7 @@
     <row r="1061">
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1061">
@@ -14403,7 +14403,7 @@
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1069">
@@ -14442,7 +14442,7 @@
     <row r="1072">
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1072">
@@ -14494,7 +14494,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1076">
@@ -14741,7 +14741,7 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1095">
@@ -14884,7 +14884,7 @@
     <row r="1106">
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1106">
@@ -15076,7 +15076,7 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1120">
@@ -15357,41 +15357,6 @@
       </c>
       <c r="D1141">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1143">
-      <c r="A1143" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="1144">
-      <c r="A1144" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1145">
-      <c r="A1145" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1146">
-      <c r="A1146" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1147">
-      <c r="A1147" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
